--- a/artfynd/A 27770-2019.xlsx
+++ b/artfynd/A 27770-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,6 +794,242 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112550147</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78713</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Flotjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>514206</v>
+      </c>
+      <c r="R3" t="n">
+        <v>7012178</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Stugun</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>1 substratenheter</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Sebastian Acker</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Sebastian Acker</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112550148</v>
+      </c>
+      <c r="B4" t="n">
+        <v>78714</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>2081</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Skrovellav</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Lobaria scrobiculata</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Scop.) DC.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Flotjärnen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>514204</v>
+      </c>
+      <c r="R4" t="n">
+        <v>7012186</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Ragunda</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Stugun</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2023-10-04</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>1 substratenheter</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Sebastian Acker</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Sebastian Acker</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>SCA Skog Naturvärdesinventering</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
